--- a/flaskProject/data/2022数据分析与处理技术课程自评.xlsx
+++ b/flaskProject/data/2022数据分析与处理技术课程自评.xlsx
@@ -1630,10 +1630,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14"/>
@@ -5012,36 +5012,6 @@
       </c>
       <c r="L89" s="2">
         <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="6:12">
-      <c r="F90" s="1">
-        <f t="shared" ref="F90:L90" si="0">AVERAGE(F2:F89)</f>
-        <v>8.44318181818182</v>
-      </c>
-      <c r="G90" s="1">
-        <f t="shared" si="0"/>
-        <v>8.59090909090909</v>
-      </c>
-      <c r="H90" s="1">
-        <f t="shared" si="0"/>
-        <v>8.62954545454545</v>
-      </c>
-      <c r="I90" s="1">
-        <f t="shared" si="0"/>
-        <v>8.68181818181818</v>
-      </c>
-      <c r="J90" s="1">
-        <f t="shared" si="0"/>
-        <v>8.64942528735632</v>
-      </c>
-      <c r="K90" s="1">
-        <f t="shared" si="0"/>
-        <v>8.03522727272727</v>
-      </c>
-      <c r="L90" s="1">
-        <f t="shared" si="0"/>
-        <v>8.62179487179487</v>
       </c>
     </row>
   </sheetData>
